--- a/teaching/traditional_assets/database/data/greece/greece_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/greece/greece_bank_money_center.xlsx
@@ -590,14 +590,8 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.0101</v>
-      </c>
-      <c r="E2">
-        <v>-0.315</v>
-      </c>
       <c r="F2">
-        <v>0.45</v>
+        <v>0.258</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,25 +600,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.008048882092785394</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007486251815284537</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>769.8</v>
+        <v>-1261.9</v>
       </c>
       <c r="L2">
-        <v>0.1549641678073919</v>
+        <v>-0.2580467056562104</v>
       </c>
       <c r="M2">
-        <v>28.37</v>
+        <v>21.17</v>
       </c>
       <c r="N2">
-        <v>0.002378935893673221</v>
+        <v>0.00272107969151671</v>
       </c>
       <c r="O2">
-        <v>0.03685372824110159</v>
+        <v>-0.01677628972184801</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -633,76 +627,70 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
-        <v>28.37</v>
+        <v>21.17</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>10461.4</v>
+        <v>30827.3</v>
       </c>
       <c r="V2">
-        <v>0.8772294662697581</v>
+        <v>3.962377892030848</v>
       </c>
       <c r="W2">
-        <v>0.02952339288459037</v>
+        <v>-0.03168289030325721</v>
       </c>
       <c r="X2">
-        <v>0.1493505280846261</v>
+        <v>0.2490925801383365</v>
       </c>
       <c r="Y2">
-        <v>-0.1198271352000358</v>
+        <v>-0.2807754704415937</v>
       </c>
       <c r="Z2">
-        <v>0.08114827936484095</v>
+        <v>0.0787071313148221</v>
       </c>
       <c r="AA2">
-        <v>0.0006828265243592025</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.08950642594862232</v>
+        <v>0.08516646298621965</v>
       </c>
       <c r="AC2">
-        <v>-0.08940321511488249</v>
+        <v>-0.08516646298621965</v>
       </c>
       <c r="AD2">
-        <v>40904.2</v>
+        <v>54704.2</v>
       </c>
       <c r="AE2">
-        <v>529.6318665793963</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>41433.83186657939</v>
+        <v>54704.2</v>
       </c>
       <c r="AG2">
-        <v>30972.43186657939</v>
+        <v>23876.9</v>
       </c>
       <c r="AH2">
-        <v>0.7765058222651902</v>
+        <v>0.8754885234987405</v>
       </c>
       <c r="AI2">
-        <v>0.5647026400987543</v>
+        <v>0.6300476242578504</v>
       </c>
       <c r="AJ2">
-        <v>0.7220029152666254</v>
+        <v>0.7542399919132954</v>
       </c>
       <c r="AK2">
-        <v>0.4923180246837294</v>
+        <v>0.4263869195795579</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>280.3385648687547</v>
-      </c>
-      <c r="AP2">
-        <v>212.2707961522815</v>
       </c>
     </row>
     <row r="3">
@@ -721,9 +709,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.526</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -731,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01851004895620983</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01851004895620983</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>38.4</v>
+        <v>-37</v>
       </c>
       <c r="L3">
-        <v>0.3801980198019802</v>
+        <v>-1.002710027100271</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,7 +734,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,73 +743,67 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>166.3</v>
+        <v>285.4</v>
       </c>
       <c r="V3">
-        <v>0.8132029339853302</v>
+        <v>2.162121212121212</v>
       </c>
       <c r="W3">
-        <v>0.06832740213523131</v>
+        <v>-0.06934032983508245</v>
       </c>
       <c r="X3">
-        <v>0.1182637534150908</v>
+        <v>0.1336224303203382</v>
       </c>
       <c r="Y3">
-        <v>-0.04993635127985944</v>
+        <v>-0.2029627601554206</v>
       </c>
       <c r="Z3">
-        <v>0.1544336780665672</v>
+        <v>0.04997291440953412</v>
       </c>
       <c r="AA3">
-        <v>0.002858574941499707</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.07891357188282577</v>
+        <v>0.06715997433322604</v>
       </c>
       <c r="AC3">
-        <v>-0.07605499694132606</v>
+        <v>-0.06715997433322604</v>
       </c>
       <c r="AD3">
-        <v>425.2</v>
+        <v>375.3</v>
       </c>
       <c r="AE3">
-        <v>17.20242527711403</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>442.402425277114</v>
+        <v>375.3</v>
       </c>
       <c r="AG3">
-        <v>276.102425277114</v>
+        <v>89.90000000000003</v>
       </c>
       <c r="AH3">
-        <v>0.6838781367802135</v>
+        <v>0.7397989355411</v>
       </c>
       <c r="AI3">
-        <v>0.4532800470772435</v>
+        <v>0.4131439894319683</v>
       </c>
       <c r="AJ3">
-        <v>0.5744923678192305</v>
+        <v>0.4051374493014873</v>
       </c>
       <c r="AK3">
-        <v>0.3409924642162461</v>
+        <v>0.1443017656500803</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>80.07532956685499</v>
-      </c>
-      <c r="AP3">
-        <v>51.99669025934352</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +814,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alpha Bank A.E. (ATSE:ALPHA)</t>
+          <t>Eurobank Ergasias Services and Holdings S.A. (ATSE:EUROB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -843,11 +822,8 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>-0.0101</v>
-      </c>
       <c r="F4">
-        <v>0.5920000000000001</v>
+        <v>0.257</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -856,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01213256774157722</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01213256774157722</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>99</v>
+        <v>-1230.6</v>
       </c>
       <c r="L4">
-        <v>0.1068306895435416</v>
+        <v>-8.545833333333333</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -874,7 +850,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -883,73 +859,67 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>594.9</v>
+        <v>7152.4</v>
       </c>
       <c r="V4">
-        <v>0.178578933149221</v>
+        <v>2.725450596349503</v>
       </c>
       <c r="W4">
-        <v>0.01043533256034574</v>
+        <v>-0.1722250990161365</v>
       </c>
       <c r="X4">
-        <v>0.1415142633612476</v>
+        <v>0.2490925801383365</v>
       </c>
       <c r="Y4">
-        <v>-0.1310789308009019</v>
+        <v>-0.4213176791544729</v>
       </c>
       <c r="Z4">
-        <v>0.0574157032227739</v>
+        <v>0.007629745410231276</v>
       </c>
       <c r="AA4">
-        <v>0.0006965999087805978</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.08882931328473827</v>
+        <v>0.07042653807323118</v>
       </c>
       <c r="AC4">
-        <v>-0.08813271337595767</v>
+        <v>-0.07042653807323118</v>
       </c>
       <c r="AD4">
-        <v>9812.799999999999</v>
+        <v>17598.6</v>
       </c>
       <c r="AE4">
-        <v>171.2837473694019</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>9984.083747369401</v>
+        <v>17598.6</v>
       </c>
       <c r="AG4">
-        <v>9389.183747369401</v>
+        <v>10446.2</v>
       </c>
       <c r="AH4">
-        <v>0.7498156971511892</v>
+        <v>0.8702312724683404</v>
       </c>
       <c r="AI4">
-        <v>0.5165129562677151</v>
+        <v>0.7370060933475721</v>
       </c>
       <c r="AJ4">
-        <v>0.7381153055056641</v>
+        <v>0.799219616694082</v>
       </c>
       <c r="AK4">
-        <v>0.5011605021935487</v>
+        <v>0.6245448729829428</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>215.665934065934</v>
-      </c>
-      <c r="AP4">
-        <v>206.3556867553715</v>
       </c>
     </row>
     <row r="5">
@@ -960,7 +930,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>National Bank of Greece S.A. (ATSE:ETE)</t>
+          <t>Alpha Bank A.E. (ATSE:ALPHA)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -968,11 +938,8 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>-0.0737</v>
-      </c>
-      <c r="E5">
-        <v>-0.315</v>
+      <c r="F5">
+        <v>0.259</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -981,25 +948,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0008882892919807386</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0007888914816882764</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>282.4</v>
+        <v>159.5</v>
       </c>
       <c r="L5">
-        <v>0.2006109256233572</v>
+        <v>0.1055033734620982</v>
       </c>
       <c r="M5">
-        <v>25.1</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.008098602910334592</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.08888101983002834</v>
+        <v>-0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1011,73 +978,64 @@
         <v>-0</v>
       </c>
       <c r="S5">
-        <v>25.1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3225.4</v>
+        <v>6126.7</v>
       </c>
       <c r="V5">
-        <v>1.040686606653115</v>
+        <v>3.400321900321901</v>
       </c>
       <c r="W5">
-        <v>0.04812132572207548</v>
+        <v>0.0171544112111337</v>
       </c>
       <c r="X5">
-        <v>0.1493505280846261</v>
+        <v>0.1332517177221639</v>
       </c>
       <c r="Y5">
-        <v>-0.1012292023625506</v>
+        <v>-0.1160973065110302</v>
       </c>
       <c r="Z5">
-        <v>0.1308302043253918</v>
+        <v>0.08164918610051958</v>
       </c>
       <c r="AA5">
-        <v>0.0001032108337398383</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.08950642594862232</v>
+        <v>0.08516646298621965</v>
       </c>
       <c r="AC5">
-        <v>-0.08940321511488249</v>
+        <v>-0.08516646298621965</v>
       </c>
       <c r="AD5">
-        <v>10028.4</v>
+        <v>5100.5</v>
       </c>
       <c r="AE5">
-        <v>131.2477758183936</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>10159.64777581839</v>
+        <v>5100.5</v>
       </c>
       <c r="AG5">
-        <v>6934.247775818394</v>
+        <v>-1026.2</v>
       </c>
       <c r="AH5">
-        <v>0.7662484193766501</v>
+        <v>0.7389565796908277</v>
       </c>
       <c r="AI5">
-        <v>0.6123276872528605</v>
+        <v>0.3392846452162229</v>
       </c>
       <c r="AJ5">
-        <v>0.6911062697613752</v>
+        <v>-1.323104693140794</v>
       </c>
       <c r="AK5">
-        <v>0.5187801495295805</v>
+        <v>-0.1152205155842989</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>364.6690909090909</v>
-      </c>
-      <c r="AP5">
-        <v>252.1544645752143</v>
       </c>
     </row>
     <row r="6">
@@ -1088,7 +1046,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eurobank Ergasias S.A. (ATSE:EUROB)</t>
+          <t>National Bank of Greece S.A. (ATSE:ETE)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1096,9 +1054,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="F6">
-        <v>0.45</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -1106,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01336051159660159</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01018591617310495</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>100.3</v>
+        <v>-203.1</v>
       </c>
       <c r="L6">
-        <v>0.08382783117425825</v>
+        <v>-0.1143903125880034</v>
       </c>
       <c r="M6">
-        <v>3.27</v>
+        <v>20</v>
       </c>
       <c r="N6">
-        <v>0.000854812568620275</v>
+        <v>0.007911392405063292</v>
       </c>
       <c r="O6">
-        <v>0.03260219341974078</v>
+        <v>-0.09847365829640571</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1133,76 +1088,70 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>3.27</v>
+        <v>20</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>3771.7</v>
+        <v>7926.3</v>
       </c>
       <c r="V6">
-        <v>0.9859622523134834</v>
+        <v>3.135403481012658</v>
       </c>
       <c r="W6">
-        <v>0.01720706810773718</v>
+        <v>-0.03168289030325721</v>
       </c>
       <c r="X6">
-        <v>0.1715580745122081</v>
+        <v>0.2680035396108901</v>
       </c>
       <c r="Y6">
-        <v>-0.1543510064044709</v>
+        <v>-0.2996864299141473</v>
       </c>
       <c r="Z6">
-        <v>0.06119399929292103</v>
+        <v>0.1343711686621157</v>
       </c>
       <c r="AA6">
-        <v>0.0006233169470947369</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.09101793506415207</v>
+        <v>0.09214344800337318</v>
       </c>
       <c r="AC6">
-        <v>-0.09039461811705733</v>
+        <v>-0.09214344800337318</v>
       </c>
       <c r="AD6">
-        <v>15477</v>
+        <v>18552.1</v>
       </c>
       <c r="AE6">
-        <v>109.070739373331</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>15586.07073937333</v>
+        <v>18552.1</v>
       </c>
       <c r="AG6">
-        <v>11814.37073937333</v>
+        <v>10625.8</v>
       </c>
       <c r="AH6">
-        <v>0.8029309550336784</v>
+        <v>0.8800764702254733</v>
       </c>
       <c r="AI6">
-        <v>0.6849734240176569</v>
+        <v>0.743657579438091</v>
       </c>
       <c r="AJ6">
-        <v>0.7554056217480539</v>
+        <v>0.807812191153887</v>
       </c>
       <c r="AK6">
-        <v>0.6223799137420392</v>
+        <v>0.6242832299304381</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>409.4444444444445</v>
-      </c>
-      <c r="AP6">
-        <v>312.5494904596119</v>
       </c>
     </row>
     <row r="7">
@@ -1221,9 +1170,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="F7">
-        <v>0.131</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1231,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.007213119901002348</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.007213119901002348</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>249.7</v>
+        <v>49.3</v>
       </c>
       <c r="L7">
-        <v>0.1869431758628434</v>
+        <v>0.03466947960618846</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>1.17</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.001686121919584954</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.02373225152129817</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1261,70 +1207,67 @@
         <v>-0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.17</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>2703.1</v>
+        <v>9336.5</v>
       </c>
       <c r="V7">
-        <v>1.845119453924915</v>
+        <v>13.45510880530336</v>
       </c>
       <c r="W7">
-        <v>0.02952339288459037</v>
+        <v>0.005916378648233487</v>
       </c>
       <c r="X7">
-        <v>0.1580935879002659</v>
+        <v>0.6120079809780188</v>
       </c>
       <c r="Y7">
-        <v>-0.1285701950156755</v>
+        <v>-0.6060916023297853</v>
       </c>
       <c r="Z7">
-        <v>0.09466451878393367</v>
+        <v>0.1317825865344516</v>
       </c>
       <c r="AA7">
-        <v>0.0006828265243592025</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.09543553871700707</v>
+        <v>0.1033758064503938</v>
       </c>
       <c r="AC7">
-        <v>-0.09475271219264786</v>
+        <v>-0.1033758064503938</v>
       </c>
       <c r="AD7">
-        <v>5160.8</v>
+        <v>13077.7</v>
       </c>
       <c r="AE7">
-        <v>100.8271787411558</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>5261.627178741156</v>
+        <v>13077.7</v>
       </c>
       <c r="AG7">
-        <v>2558.527178741156</v>
+        <v>3741.200000000001</v>
       </c>
       <c r="AH7">
-        <v>0.7822088305072135</v>
+        <v>0.9496136977547998</v>
       </c>
       <c r="AI7">
-        <v>0.3834746085449227</v>
+        <v>0.5928671163819679</v>
       </c>
       <c r="AJ7">
-        <v>0.6358916107885332</v>
+        <v>0.8435435503145364</v>
       </c>
       <c r="AK7">
-        <v>0.2322170367382257</v>
+        <v>0.294075570472964</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>173.1812080536913</v>
-      </c>
-      <c r="AP7">
-        <v>85.8566167362804</v>
       </c>
     </row>
   </sheetData>
